--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -5328,12 +5328,12 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6169,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6197,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,15 +6219,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,7 +6252,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6261,7 +6269,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6273,7 +6281,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,7 +6302,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6323,7 +6331,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,14 +6374,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6394,7 +6402,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6411,19 +6419,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6444,7 +6452,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6461,7 +6469,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6473,7 +6481,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6494,7 +6502,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,19 +6519,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,19 +6569,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6589,12 +6597,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6611,19 +6619,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6639,12 +6647,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6661,19 +6669,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,7 +6702,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6711,19 +6719,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6761,19 +6769,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,14 +6824,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,14 +6874,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6894,7 +6902,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6923,7 +6931,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6973,7 +6981,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6989,12 +6997,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7011,19 +7019,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7039,12 +7042,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7061,19 +7064,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7114,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7159,11 +7162,7 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H132" s="16" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7173,7 +7172,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7194,7 +7193,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7210,7 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7223,7 +7222,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7244,7 +7243,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7266,14 +7265,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7294,7 +7293,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7316,14 +7315,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7344,7 +7343,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7366,14 +7365,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7389,12 +7388,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7411,19 +7410,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7461,19 +7460,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7494,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,7 +7512,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7539,7 +7533,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7557,13 +7551,18 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7584,7 +7583,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7606,14 +7605,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7634,7 +7633,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7663,7 +7662,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7684,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7702,18 +7701,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7734,7 +7728,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7752,13 +7746,18 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,18 +7796,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7829,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7853,7 +7847,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7891,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7919,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7936,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7954,23 +7948,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7981,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8009,13 +8003,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8026,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8054,7 +8048,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8071,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8089,7 +8083,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8099,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8116,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8144,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8161,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8189,13 +8183,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8206,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8234,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8251,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8279,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8296,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8341,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8369,7 +8363,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8386,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8414,13 +8408,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8459,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8476,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8504,7 +8498,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8521,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8549,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8594,13 +8588,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8634,18 +8628,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8684,13 +8678,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8729,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8746,14 +8740,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8774,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8798,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8819,7 +8813,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8843,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8864,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8888,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8909,13 +8903,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8933,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8954,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8978,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8999,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9023,7 +9017,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9044,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9061,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9089,7 +9083,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9106,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9129,18 +9123,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9151,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9179,13 +9173,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9224,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9241,14 +9235,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9269,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9293,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9314,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9338,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9359,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9383,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9404,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9428,7 +9422,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9449,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9466,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9494,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9511,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9539,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9556,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9584,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9601,14 +9595,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9629,7 +9623,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9653,7 +9647,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9669,12 +9663,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9691,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9736,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9764,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9781,14 +9775,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9809,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9833,7 +9827,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9854,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9871,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9899,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9916,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9944,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9961,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9989,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10006,14 +10000,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10034,7 +10028,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10058,7 +10052,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10067,45 +10061,15 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B196" s="22" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C196" s="22" t="inlineStr">
-        <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
-        </is>
-      </c>
+      <c r="A196" s="22" t="n"/>
+      <c r="B196" s="22" t="n"/>
+      <c r="C196" s="22" t="n"/>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E196" s="22" t="n"/>
       <c r="G196" s="22" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L196" s="26" t="n"/>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11825,7 +11789,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4489,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4530,18 +4530,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,15 +4598,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,15 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I84" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4832,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4865,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4882,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,13 +4965,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4990,7 +4990,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5006,18 +5006,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,19 +5028,15 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5061,7 +5057,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5078,7 +5074,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5090,7 +5086,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5111,7 +5107,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5140,7 +5136,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5161,7 +5157,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5178,7 +5174,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5190,7 +5186,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5211,7 +5207,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5228,7 +5224,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5240,7 +5236,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5261,7 +5257,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5274,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5290,7 +5286,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5311,7 +5307,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5328,19 +5324,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5378,19 +5374,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5411,7 +5407,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5428,7 +5424,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5478,7 +5474,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5490,7 +5486,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5511,7 +5507,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5528,7 +5524,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5540,7 +5536,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5561,7 +5557,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5578,7 +5574,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5590,7 +5586,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5606,12 +5602,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5628,19 +5624,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5690,7 +5686,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5711,7 +5707,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5740,7 +5736,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5761,7 +5757,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5790,7 +5786,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5811,7 +5807,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5828,19 +5824,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5878,7 +5874,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
@@ -5890,7 +5886,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5907,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5940,7 +5936,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5981,12 +5977,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I108" s="16" t="n"/>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,19 +6024,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6052,12 +6048,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,19 +6070,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6148,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,19 +6170,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6202,7 +6199,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6219,7 +6216,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6231,7 +6228,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6252,7 +6249,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6281,7 +6278,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6302,7 +6299,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6331,7 +6328,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6352,7 +6349,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6374,14 +6371,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6402,7 +6399,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6419,7 +6416,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6431,7 +6428,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6469,7 +6466,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6481,7 +6478,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6502,7 +6499,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6524,14 +6521,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6552,7 +6549,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6569,19 +6566,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6597,12 +6594,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6619,19 +6616,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6652,7 +6649,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6674,14 +6671,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6719,19 +6716,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6752,7 +6749,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6774,14 +6771,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6802,7 +6799,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6824,14 +6821,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6881,7 +6878,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6902,7 +6899,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6931,7 +6928,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6952,7 +6949,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6981,7 +6978,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6997,12 +6994,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7019,14 +7016,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7064,19 +7066,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7114,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7162,7 +7159,11 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7172,7 +7173,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7208,11 +7209,7 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H133" s="16" t="n"/>
       <c r="I133" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7222,7 +7219,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7243,7 +7240,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,14 +7262,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7293,7 +7290,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,14 +7312,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,7 +7340,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,14 +7362,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7388,12 +7385,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7410,19 +7407,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7440,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7457,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7490,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7512,7 +7514,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7533,7 +7535,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7551,18 +7553,13 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,14 +7602,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7633,7 +7630,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7662,7 +7659,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7680,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7701,13 +7698,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7728,7 +7730,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7746,18 +7748,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7796,13 +7793,18 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7825,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7847,7 +7849,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7870,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7887,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7930,14 +7932,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,23 +7950,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7975,14 +7977,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8005,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8022,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8048,7 +8050,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8065,14 +8067,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8085,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,13 +8095,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8110,14 +8112,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,13 +8140,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8155,14 +8157,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8185,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8202,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8230,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8247,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8292,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8320,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8337,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,7 +8365,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8380,14 +8382,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8410,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8427,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8455,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8472,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,7 +8500,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8515,14 +8517,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,13 +8545,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8560,14 +8562,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,13 +8590,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8607,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,18 +8630,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8650,14 +8652,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8680,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8697,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8725,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8742,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8770,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8792,7 +8794,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,7 +8815,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8837,7 +8839,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,13 +8860,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8875,14 +8877,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8905,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8922,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8972,7 +8974,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9017,7 +9019,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9040,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9057,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9100,14 +9102,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,18 +9125,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9145,14 +9147,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9175,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9192,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9220,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9237,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9265,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9287,7 +9289,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9332,7 +9334,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9355,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9377,7 +9379,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9400,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9422,7 +9424,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9445,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9462,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9490,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9507,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9535,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9552,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9597,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,7 +9625,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9647,7 +9649,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9665,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9687,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9732,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9760,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9777,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9827,7 +9829,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9850,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9867,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9895,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9912,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9940,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9957,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9985,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10002,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10052,7 +10054,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10063,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11821,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,19 +1122,15 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1172,19 +1168,19 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1205,13 +1201,13 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1222,19 +1218,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1255,13 +1251,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1272,19 +1268,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1305,13 +1301,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1322,19 +1318,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1355,7 +1351,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1372,19 +1368,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1405,13 +1401,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
+          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,19 +1418,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1455,13 +1451,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,19 +1468,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1522,19 +1518,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1572,19 +1568,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1601,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1622,19 +1618,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1655,7 +1651,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1677,14 +1673,14 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1722,19 +1718,19 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1772,19 +1768,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1805,7 +1801,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1818,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,17 +1841,17 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1868,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1901,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1918,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1972,19 +1968,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2051,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2084,7 +2080,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2122,14 +2118,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2167,14 +2168,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2212,14 +2213,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,13 +2241,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,7 +2265,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2285,13 +2286,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2302,7 +2303,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2310,7 +2311,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2331,13 +2332,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2348,19 +2349,15 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I33" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I33" s="16" t="n"/>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2398,19 +2395,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2431,13 +2428,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2448,19 +2445,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2481,13 +2478,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2498,19 +2495,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,13 +2528,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2548,19 +2545,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2581,7 +2578,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2598,19 +2595,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2621,23 +2618,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,15 +2645,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2677,13 +2678,13 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2694,7 +2695,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2702,7 +2703,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2718,12 +2719,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2740,19 +2741,15 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I41" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="n"/>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2773,7 +2770,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2788,13 +2785,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2830,21 +2835,13 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2894,7 +2891,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2915,7 +2912,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2932,19 +2929,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2965,7 +2962,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2982,19 +2979,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3032,19 +3029,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3082,19 +3079,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3115,13 +3112,13 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3132,14 +3129,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3160,13 +3162,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3177,7 +3179,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3185,7 +3187,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3223,7 +3225,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3231,7 +3233,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3269,7 +3271,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3277,7 +3279,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3298,7 +3300,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3315,14 +3317,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3360,7 +3362,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3368,7 +3370,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3406,14 +3408,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3451,14 +3453,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3479,7 +3481,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3496,14 +3498,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3524,7 +3526,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3541,14 +3543,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3586,14 +3588,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3631,14 +3633,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3649,17 +3651,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3676,19 +3678,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3699,17 +3696,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,19 +3723,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3759,7 +3751,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,7 +3768,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
@@ -3788,7 +3780,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3818,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3851,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,7 +3868,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3888,7 +3880,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3901,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3918,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3951,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3981,14 +3973,14 @@
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4001,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,7 +4018,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
@@ -4038,7 +4030,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,7 +4051,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4088,7 +4080,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4101,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4118,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4159,7 +4151,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,19 +4168,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4204,18 +4196,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4226,15 +4218,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,12 +4246,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4272,19 +4268,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4300,12 +4296,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4346,18 +4342,18 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,15 +4364,19 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,7 +4552,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,19 +4598,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4626,18 +4622,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,15 +4690,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4786,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,19 +4832,15 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I85" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4882,19 +4878,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4915,7 +4907,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4924,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4957,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,15 +4974,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5011,13 +5007,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,15 +5024,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,19 +5074,15 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5102,18 +5098,18 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5124,19 +5120,15 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5157,7 +5149,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5174,7 +5166,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5186,7 +5178,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5207,7 +5199,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5224,7 +5216,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5236,7 +5228,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5257,7 +5249,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5274,7 +5266,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5286,7 +5278,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5324,7 +5316,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5336,7 +5328,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5357,7 +5349,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5374,19 +5366,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5424,7 +5416,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5436,7 +5428,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5457,7 +5449,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5474,19 +5466,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5507,7 +5499,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5524,7 +5516,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5536,7 +5528,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5557,7 +5549,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5574,7 +5566,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5586,7 +5578,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5607,7 +5599,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5624,7 +5616,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5636,7 +5628,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5652,12 +5644,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5674,19 +5666,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5702,12 +5694,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5724,19 +5716,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5752,12 +5744,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5774,19 +5766,15 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5802,12 +5790,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5824,19 +5812,15 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5857,7 +5841,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5874,19 +5858,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5907,7 +5891,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5924,19 +5908,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5957,7 +5941,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5974,19 +5958,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +5991,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,15 +6008,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6053,7 +6041,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6070,7 +6058,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6082,7 +6070,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6098,12 +6086,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,19 +6108,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6148,12 +6136,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,15 +6158,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6194,12 +6186,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6216,19 +6208,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,12 +6232,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6266,19 +6254,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,12 +6282,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6316,19 +6304,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,12 +6332,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,19 +6354,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6399,7 +6382,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6416,19 +6399,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6449,7 +6432,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6466,19 +6449,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6499,7 +6482,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6516,19 +6499,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6549,7 +6532,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6566,19 +6549,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6599,7 +6582,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6616,19 +6599,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6644,12 +6627,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6666,19 +6649,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,12 +6677,12 @@
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6716,19 +6699,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,12 +6727,12 @@
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6766,19 +6749,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,12 +6777,12 @@
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,19 +6799,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6849,7 +6832,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,19 +6849,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6899,7 +6882,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6916,7 +6899,7 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6928,7 +6911,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6949,7 +6932,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6971,14 +6954,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6999,7 +6982,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7021,14 +7004,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7044,12 +7027,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7066,14 +7049,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7089,12 +7077,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7099,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7139,12 +7127,12 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,19 +7149,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7189,12 +7177,12 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7209,17 +7197,21 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7240,7 +7232,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7257,19 +7249,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7290,7 +7277,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7307,19 +7294,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7340,7 +7327,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7357,7 +7344,7 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7369,7 +7356,7 @@
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7390,7 +7377,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7405,21 +7392,17 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H137" s="16" t="n"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7435,12 +7418,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7457,19 +7440,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7485,12 +7468,12 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7507,14 +7490,19 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7530,12 +7518,12 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7552,14 +7540,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7575,12 +7568,12 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7597,19 +7590,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7630,7 +7623,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7647,19 +7640,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7680,7 +7673,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,18 +7691,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7730,7 +7718,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7754,7 +7742,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7775,7 +7763,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,14 +7785,14 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7825,7 +7813,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7843,13 +7831,18 @@
       <c r="H146" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7870,7 +7863,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7888,13 +7881,18 @@
       <c r="H147" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7915,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7932,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7960,7 +7958,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7977,14 +7975,19 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7995,23 +7998,23 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8022,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8040,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8067,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8085,17 +8088,17 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8112,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8130,23 +8133,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8157,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8175,7 +8178,7 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
@@ -8185,13 +8188,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8202,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8220,7 +8223,7 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
@@ -8230,13 +8233,13 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8247,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8265,7 +8268,7 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
@@ -8275,13 +8278,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8292,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8337,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8365,13 +8368,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8382,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8410,7 +8413,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8427,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8455,13 +8458,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8472,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8500,13 +8503,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8517,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8545,13 +8548,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8562,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8590,13 +8593,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8607,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8635,7 +8638,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8652,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8675,18 +8678,18 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8697,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8720,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8742,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8765,18 +8768,18 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8787,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8810,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8832,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8860,13 +8863,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8884,7 +8887,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8905,13 +8908,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8922,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8974,7 +8977,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8995,7 +8998,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9019,7 +9022,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9064,7 +9067,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9085,13 +9088,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9102,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9130,7 +9133,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9147,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9170,18 +9173,18 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9192,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9215,12 +9218,12 @@
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9237,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9260,12 +9263,12 @@
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9282,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9305,12 +9308,12 @@
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9327,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9350,12 +9353,12 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9372,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9400,13 +9403,13 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9417,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9445,7 +9448,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9462,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9507,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9535,7 +9538,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9559,7 +9562,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9597,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9649,7 +9652,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9694,7 +9697,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9710,12 +9713,12 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9732,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9755,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9777,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9800,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9822,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9845,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9867,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9890,12 +9893,12 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9912,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9940,7 +9943,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9957,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9985,7 +9988,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10002,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10030,7 +10033,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10047,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10075,7 +10078,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10092,14 +10095,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10108,75 +10111,225 @@
       <c r="P196" s="26" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1" s="13">
-      <c r="A197" s="22" t="n"/>
-      <c r="B197" s="22" t="n"/>
-      <c r="C197" s="22" t="n"/>
+      <c r="A197" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C197" s="22" t="inlineStr">
+        <is>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+        </is>
+      </c>
       <c r="D197" s="22" t="n"/>
-      <c r="E197" s="22" t="n"/>
+      <c r="E197" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G197" s="22" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
-      <c r="L197" s="26" t="n"/>
+      <c r="L197" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M197" s="26" t="n"/>
       <c r="N197" s="26" t="n"/>
       <c r="O197" s="26" t="n"/>
       <c r="P197" s="26" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1" s="13">
-      <c r="A198" s="22" t="n"/>
-      <c r="B198" s="22" t="n"/>
-      <c r="C198" s="22" t="n"/>
+      <c r="A198" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B198" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C198" s="22" t="inlineStr">
+        <is>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+        </is>
+      </c>
       <c r="D198" s="22" t="n"/>
-      <c r="E198" s="22" t="n"/>
+      <c r="E198" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G198" s="22" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
-      <c r="L198" s="26" t="n"/>
+      <c r="L198" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M198" s="26" t="n"/>
       <c r="N198" s="26" t="n"/>
       <c r="O198" s="26" t="n"/>
       <c r="P198" s="26" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1" s="13">
-      <c r="A199" s="22" t="n"/>
-      <c r="B199" s="22" t="n"/>
-      <c r="C199" s="22" t="n"/>
+      <c r="A199" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B199" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C199" s="22" t="inlineStr">
+        <is>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+        </is>
+      </c>
       <c r="D199" s="22" t="n"/>
-      <c r="E199" s="22" t="n"/>
+      <c r="E199" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G199" s="22" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
-      <c r="L199" s="26" t="n"/>
+      <c r="L199" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M199" s="26" t="n"/>
       <c r="N199" s="26" t="n"/>
       <c r="O199" s="26" t="n"/>
       <c r="P199" s="26" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1" s="13">
-      <c r="A200" s="22" t="n"/>
-      <c r="B200" s="22" t="n"/>
-      <c r="C200" s="22" t="n"/>
+      <c r="A200" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B200" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C200" s="22" t="inlineStr">
+        <is>
+          <t>新しい Azure サービスの実装方法を計画する</t>
+        </is>
+      </c>
       <c r="D200" s="22" t="n"/>
-      <c r="E200" s="22" t="n"/>
+      <c r="E200" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G200" s="22" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
-      <c r="L200" s="26" t="n"/>
+      <c r="L200" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M200" s="26" t="n"/>
       <c r="N200" s="26" t="n"/>
       <c r="O200" s="26" t="n"/>
       <c r="P200" s="26" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1" s="13">
-      <c r="A201" s="22" t="n"/>
-      <c r="B201" s="22" t="n"/>
-      <c r="C201" s="22" t="n"/>
+      <c r="A201" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B201" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C201" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D201" s="22" t="n"/>
-      <c r="E201" s="22" t="n"/>
+      <c r="E201" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G201" s="22" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
-      <c r="L201" s="26" t="n"/>
+      <c r="L201" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M201" s="26" t="n"/>
       <c r="N201" s="26" t="n"/>
       <c r="O201" s="26" t="n"/>
@@ -11821,7 +11974,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12104,7 +12257,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -10275,7 +10275,7 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
@@ -10320,7 +10320,7 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,19 +1168,15 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1201,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1218,19 +1214,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1251,13 +1247,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1268,19 +1264,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1301,13 +1297,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1318,19 +1314,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1351,13 +1347,13 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1368,19 +1364,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1401,7 +1397,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1418,19 +1414,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1451,13 +1447,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
+          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1468,19 +1464,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1501,13 +1497,13 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1518,19 +1514,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1568,19 +1564,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,7 +1597,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1618,19 +1614,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1668,19 +1664,19 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1723,14 +1719,14 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1751,7 +1747,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1768,19 +1764,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1801,7 +1797,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1818,19 +1814,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1868,19 +1864,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,17 +1887,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1918,19 +1914,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1968,19 +1964,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,7 +1997,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2018,19 +2014,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,7 +2047,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2080,7 +2076,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2130,7 +2126,7 @@
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2168,14 +2164,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2213,14 +2214,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,13 +2287,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,7 +2312,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2349,7 +2350,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2357,7 +2358,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,19 +2396,15 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I34" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2428,7 +2425,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2445,19 +2442,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2478,13 +2475,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2495,19 +2492,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2528,13 +2525,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2545,19 +2542,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2578,13 +2575,13 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2595,19 +2592,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2645,19 +2642,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2668,23 +2665,23 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2695,15 +2692,19 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2724,13 +2725,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,7 +2742,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2749,7 +2750,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2765,12 +2766,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2787,19 +2788,15 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2835,13 +2832,21 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="n"/>
-      <c r="I43" s="16" t="n"/>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2877,21 +2882,13 @@
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
-      <c r="H44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2941,7 +2938,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2962,7 +2959,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2979,19 +2976,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3029,19 +3026,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3062,7 +3059,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3079,19 +3076,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3112,7 +3109,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3129,19 +3126,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,13 +3159,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3179,15 +3176,19 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I50" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I50" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,13 +3209,13 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,7 +3226,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3233,7 +3234,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3254,7 +3255,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3271,7 +3272,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3279,7 +3280,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3317,14 +3318,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3362,7 +3363,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3370,7 +3371,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3408,14 +3409,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3453,14 +3454,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3498,14 +3499,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3543,14 +3544,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3588,14 +3589,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3633,14 +3634,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3678,14 +3679,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3723,14 +3724,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3741,17 +3742,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3768,19 +3769,15 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="n"/>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3818,7 +3815,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
@@ -3830,7 +3827,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3868,7 +3865,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3880,7 +3877,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3901,7 +3898,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
+          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3918,19 +3915,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3968,19 +3965,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4023,14 +4020,14 @@
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4051,7 +4048,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4080,7 +4077,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4118,7 +4115,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
@@ -4130,7 +4127,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4151,7 +4148,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4168,7 +4165,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4180,7 +4177,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4201,13 +4198,13 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4218,19 +4215,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4251,13 +4248,13 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4273,14 +4270,14 @@
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4296,12 +4293,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4318,15 +4315,19 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,7 +4348,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4364,19 +4365,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4392,12 +4389,12 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,15 +4411,19 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4444,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4461,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4469,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4490,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4507,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4515,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,13 +4536,13 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4553,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4561,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,13 +4582,13 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4599,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4607,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,13 +4628,13 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,7 +4645,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4653,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4668,18 +4669,18 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,19 +4691,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4720,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4737,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4787,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4795,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,7 +4833,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4840,7 +4841,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4878,7 +4879,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4886,7 +4887,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4907,7 +4908,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4924,19 +4925,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4974,19 +4971,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5024,19 +5021,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,15 +5071,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5103,13 +5104,13 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5120,7 +5121,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5128,7 +5129,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5144,18 +5145,18 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,19 +5167,15 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5216,7 +5213,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5228,7 +5225,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5249,7 +5246,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5275,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5299,7 +5296,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5316,7 +5313,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5328,7 +5325,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5349,7 +5346,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5366,7 +5363,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5378,7 +5375,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5416,7 +5413,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5428,7 +5425,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5449,7 +5446,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5466,19 +5463,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5499,7 +5496,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5516,19 +5513,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5566,7 +5563,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5578,7 +5575,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5599,7 +5596,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5616,7 +5613,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5628,7 +5625,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5649,7 +5646,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5666,7 +5663,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
@@ -5678,7 +5675,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5699,7 +5696,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5716,7 +5713,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5728,7 +5725,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5749,7 +5746,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5766,15 +5763,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5795,7 +5796,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5812,7 +5813,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5820,7 +5821,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5836,12 +5837,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5858,19 +5859,15 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5891,7 +5888,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5920,7 +5917,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5941,7 +5938,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5970,7 +5967,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5991,7 +5988,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6020,7 +6017,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6058,19 +6055,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6108,7 +6105,7 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6117,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6141,7 +6138,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,7 +6167,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6191,7 +6188,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6211,12 +6208,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6237,7 +6238,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6254,19 +6255,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6282,12 +6279,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6304,19 +6301,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6337,7 +6334,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6354,14 +6351,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6377,12 +6379,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6399,19 +6401,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6432,7 +6429,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6449,7 +6446,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6461,7 +6458,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,7 +6508,7 @@
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6532,7 +6529,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,7 +6558,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6582,7 +6579,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6604,14 +6601,14 @@
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6632,7 +6629,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6649,7 +6646,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
@@ -6661,7 +6658,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6682,7 +6679,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6699,7 +6696,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
@@ -6711,7 +6708,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6732,7 +6729,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6754,14 +6751,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6782,7 +6779,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6799,19 +6796,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6827,12 +6824,12 @@
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6849,19 +6846,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6882,7 +6879,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6904,14 +6901,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6932,7 +6929,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6949,19 +6946,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6982,7 +6979,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7004,14 +7001,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7032,7 +7029,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7054,14 +7051,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,7 +7108,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7132,7 +7129,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,7 +7158,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7182,7 +7179,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7208,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7227,12 +7224,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7249,14 +7246,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7277,7 +7279,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7294,19 +7296,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7327,7 +7324,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7344,19 +7341,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7377,7 +7374,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7392,7 +7389,11 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7402,7 +7403,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7438,11 +7439,7 @@
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H138" s="16" t="n"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7452,7 +7449,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7473,7 +7470,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7495,14 +7492,14 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7523,7 +7520,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7545,14 +7542,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7573,7 +7570,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7595,14 +7592,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7618,12 +7615,12 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7640,19 +7637,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7673,7 +7670,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,14 +7687,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7718,7 +7720,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7742,7 +7744,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7763,7 +7765,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7781,18 +7783,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7813,7 +7810,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7835,14 +7832,14 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7863,7 +7860,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7892,7 +7889,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7910,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7931,13 +7928,18 @@
       <c r="H148" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7958,7 +7960,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7976,18 +7978,13 @@
       <c r="H149" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8005,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8026,13 +8023,18 @@
       <c r="H150" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8053,7 +8055,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8077,7 +8079,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,7 +8100,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8115,14 +8117,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,7 +8145,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8160,14 +8162,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8178,23 +8180,23 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8205,14 +8207,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8223,23 +8225,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8250,14 +8252,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,13 +8280,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8295,14 +8297,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8313,7 +8315,7 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
@@ -8323,13 +8325,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8340,14 +8342,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8358,7 +8360,7 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
@@ -8368,7 +8370,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8385,14 +8387,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8415,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8432,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,13 +8460,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8475,14 +8477,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,7 +8505,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8520,14 +8522,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8565,14 +8567,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8593,7 +8595,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8610,14 +8612,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8640,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8657,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,13 +8685,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8700,14 +8702,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8745,14 +8747,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,13 +8775,13 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8790,14 +8792,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,7 +8820,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8835,14 +8837,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,18 +8860,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8880,14 +8882,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,12 +8905,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8925,14 +8927,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,13 +8955,13 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
       <c r="E171" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8977,7 +8979,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +9000,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9017,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9045,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9067,7 +9069,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9088,13 +9090,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9107,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,7 +9135,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9157,7 +9159,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,13 +9180,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9195,14 +9197,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9225,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9249,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9270,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9285,14 +9287,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9330,14 +9332,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9360,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9375,14 +9377,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,18 +9400,18 @@
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9420,14 +9422,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,12 +9445,12 @@
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9467,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,13 +9495,13 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9510,14 +9512,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9540,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9557,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9585,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9609,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9652,7 +9654,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9675,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9697,7 +9699,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9720,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9737,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9765,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9789,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9827,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9855,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9877,7 +9879,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9900,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9917,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,12 +9940,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9962,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,12 +9985,12 @@
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10005,14 +10007,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10033,7 +10035,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10050,14 +10052,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10078,7 +10080,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10095,14 +10097,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="C197" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D197" s="22" t="n"/>
@@ -10140,14 +10142,14 @@
       <c r="G197" s="22" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
       <c r="L197" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="26" t="n"/>
@@ -10168,7 +10170,7 @@
       </c>
       <c r="C198" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D198" s="22" t="n"/>
@@ -10185,14 +10187,14 @@
       <c r="G198" s="22" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
       <c r="L198" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="26" t="n"/>
@@ -10213,7 +10215,7 @@
       </c>
       <c r="C199" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D199" s="22" t="n"/>
@@ -10230,14 +10232,14 @@
       <c r="G199" s="22" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
       <c r="L199" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="26" t="n"/>
@@ -10258,7 +10260,7 @@
       </c>
       <c r="C200" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D200" s="22" t="n"/>
@@ -10275,14 +10277,14 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
       <c r="L200" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M200" s="26" t="n"/>
@@ -10303,7 +10305,7 @@
       </c>
       <c r="C201" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D201" s="22" t="n"/>
@@ -10320,14 +10322,14 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
       <c r="L201" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M201" s="26" t="n"/>
@@ -10336,75 +10338,225 @@
       <c r="P201" s="26" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1" s="13">
-      <c r="A202" s="22" t="n"/>
-      <c r="B202" s="22" t="n"/>
-      <c r="C202" s="22" t="n"/>
+      <c r="A202" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B202" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C202" s="22" t="inlineStr">
+        <is>
+          <t>新しい Azure サービスの実装方法を計画する</t>
+        </is>
+      </c>
       <c r="D202" s="22" t="n"/>
-      <c r="E202" s="22" t="n"/>
+      <c r="E202" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G202" s="22" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J202" s="23" t="n"/>
       <c r="K202" s="23" t="n"/>
-      <c r="L202" s="26" t="n"/>
+      <c r="L202" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M202" s="26" t="n"/>
       <c r="N202" s="26" t="n"/>
       <c r="O202" s="26" t="n"/>
       <c r="P202" s="26" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1" s="13">
-      <c r="A203" s="22" t="n"/>
-      <c r="B203" s="22" t="n"/>
-      <c r="C203" s="22" t="n"/>
+      <c r="A203" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B203" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C203" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D203" s="22" t="n"/>
-      <c r="E203" s="22" t="n"/>
+      <c r="E203" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G203" s="22" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J203" s="23" t="n"/>
       <c r="K203" s="23" t="n"/>
-      <c r="L203" s="26" t="n"/>
+      <c r="L203" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M203" s="26" t="n"/>
       <c r="N203" s="26" t="n"/>
       <c r="O203" s="26" t="n"/>
       <c r="P203" s="26" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1" s="13">
-      <c r="A204" s="22" t="n"/>
-      <c r="B204" s="22" t="n"/>
-      <c r="C204" s="22" t="n"/>
+      <c r="A204" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B204" s="22" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C204" s="22" t="inlineStr">
+        <is>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+        </is>
+      </c>
       <c r="D204" s="22" t="n"/>
-      <c r="E204" s="22" t="n"/>
+      <c r="E204" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G204" s="22" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J204" s="23" t="n"/>
       <c r="K204" s="23" t="n"/>
-      <c r="L204" s="26" t="n"/>
+      <c r="L204" s="26" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M204" s="26" t="n"/>
       <c r="N204" s="26" t="n"/>
       <c r="O204" s="26" t="n"/>
       <c r="P204" s="26" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1" s="13">
-      <c r="A205" s="22" t="n"/>
-      <c r="B205" s="22" t="n"/>
-      <c r="C205" s="22" t="n"/>
+      <c r="A205" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B205" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C205" s="22" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+        </is>
+      </c>
       <c r="D205" s="22" t="n"/>
-      <c r="E205" s="22" t="n"/>
+      <c r="E205" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G205" s="22" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J205" s="23" t="n"/>
       <c r="K205" s="23" t="n"/>
-      <c r="L205" s="26" t="n"/>
+      <c r="L205" s="26" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M205" s="26" t="n"/>
       <c r="N205" s="26" t="n"/>
       <c r="O205" s="26" t="n"/>
       <c r="P205" s="26" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1" s="13">
-      <c r="A206" s="22" t="n"/>
-      <c r="B206" s="22" t="n"/>
-      <c r="C206" s="22" t="n"/>
+      <c r="A206" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B206" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C206" s="22" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D206" s="22" t="n"/>
-      <c r="E206" s="22" t="n"/>
+      <c r="E206" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G206" s="22" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J206" s="23" t="n"/>
       <c r="K206" s="23" t="n"/>
-      <c r="L206" s="26" t="n"/>
+      <c r="L206" s="26" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M206" s="26" t="n"/>
       <c r="N206" s="26" t="n"/>
       <c r="O206" s="26" t="n"/>
@@ -11974,7 +12126,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>バックアップと災害復旧</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,19 +1213,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1246,7 +1242,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1263,19 +1259,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1296,13 +1292,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,19 +1309,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1346,13 +1342,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1363,19 +1359,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1396,13 +1392,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1413,19 +1409,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1463,19 +1459,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1496,13 +1492,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
+          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1513,19 +1509,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1546,13 +1542,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,19 +1559,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1613,19 +1609,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1646,7 +1642,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1663,19 +1659,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1696,7 +1692,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1713,19 +1709,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1746,7 +1742,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1768,14 +1764,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1796,7 +1792,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1813,19 +1809,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1863,19 +1859,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1896,7 +1892,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1913,19 +1909,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1936,17 +1932,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1963,19 +1959,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2013,19 +2009,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2063,19 +2059,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2096,7 +2092,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2125,7 +2121,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2175,7 +2171,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,7 +2192,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2213,14 +2209,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2303,7 +2304,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2311,7 +2312,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2357,7 +2358,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,7 +2396,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2403,7 +2404,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2424,13 +2425,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2441,19 +2442,15 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2474,7 +2471,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2491,19 +2488,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2524,13 +2521,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2541,19 +2538,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2574,13 +2571,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2591,19 +2588,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2624,13 +2621,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2641,19 +2638,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2674,7 +2671,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2691,19 +2688,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2714,23 +2711,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,15 +2738,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2765,18 +2766,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2787,7 +2788,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2795,7 +2796,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2811,12 +2812,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2833,19 +2834,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2881,13 +2878,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2923,21 +2928,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2987,7 +2983,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3008,7 +3004,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3025,19 +3021,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3058,7 +3054,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3075,19 +3071,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3108,7 +3104,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3125,19 +3121,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3158,7 +3154,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3175,19 +3171,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3208,13 +3204,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,15 +3221,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,19 +3814,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3847,7 +3843,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3864,7 +3860,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
@@ -3876,7 +3872,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3947,10 +3943,14 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3964,19 +3964,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>WAF ポリシーで Azure Front Door を使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,19 +4314,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4342,18 +4338,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4360,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4372,7 +4368,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4388,18 +4384,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,19 +4406,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4438,18 +4430,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4452,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4468,7 +4460,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4484,18 +4476,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4498,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4514,7 +4506,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4530,18 +4522,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4544,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4560,7 +4552,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4576,18 +4568,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4590,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4606,7 +4598,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4622,18 +4614,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,15 +4636,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4668,18 +4664,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオ向けに、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,15 +4686,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4719,13 +4719,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,19 +4736,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4769,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4786,7 +4782,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4794,7 +4790,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4811,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,7 +4828,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4840,7 +4836,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用してリージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4878,15 +4874,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4924,15 +4924,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4957,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,19 +4974,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +5003,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,19 +5020,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5048,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5070,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5098,15 +5094,19 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5120,15 +5120,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5144,18 +5148,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,15 +5170,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5195,7 +5203,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5212,7 +5220,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5224,7 +5232,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5262,7 +5270,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5282,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5312,7 +5320,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5324,7 +5332,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,7 +5353,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5362,19 +5370,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5403,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,7 +5420,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5424,7 +5432,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5453,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5470,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5482,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5520,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,7 +5553,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5562,7 +5570,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5582,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5603,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,7 +5620,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5624,7 +5632,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,7 +5653,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5662,19 +5670,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5699,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,19 +5716,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,15 +5812,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5836,18 +5840,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5862,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,13 +5895,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5912,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5954,19 +5962,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5995,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6004,19 +6012,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6045,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6062,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6091,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,7 +6108,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6116,7 +6120,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6132,18 +6136,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6158,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6182,12 +6186,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6204,19 +6208,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6232,18 +6236,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6254,15 +6258,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,12 +6286,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6300,19 +6308,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6328,18 +6336,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6350,19 +6358,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6378,18 +6386,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6400,14 +6408,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6428,13 +6441,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6445,7 +6458,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6457,7 +6470,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6478,13 +6491,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6495,19 +6508,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6528,13 +6536,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6545,19 +6553,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6578,13 +6582,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6595,19 +6599,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,13 +6628,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6645,19 +6645,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,18 +6669,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6695,19 +6691,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,12 +6719,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6745,7 +6741,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6757,7 +6753,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6773,12 +6769,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6795,19 +6791,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6823,12 +6819,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6845,19 +6841,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6878,7 +6874,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6895,19 +6891,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6923,12 +6919,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6945,19 +6941,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6973,12 +6964,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6995,19 +6986,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7023,12 +7014,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7045,19 +7036,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7073,12 +7064,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7093,21 +7084,17 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7123,12 +7110,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7145,19 +7132,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7173,12 +7160,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7195,19 +7182,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7223,12 +7210,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7245,19 +7232,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7273,12 +7260,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7295,14 +7282,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7318,18 +7305,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7340,19 +7327,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7368,18 +7355,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7390,19 +7377,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7418,12 +7400,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7438,17 +7420,21 @@
         </is>
       </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7464,12 +7450,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7486,19 +7472,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7514,12 +7495,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7536,19 +7517,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7564,12 +7540,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7586,19 +7562,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7614,18 +7585,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7636,19 +7607,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7659,23 +7625,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7686,19 +7652,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7709,17 +7670,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7736,14 +7697,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7754,23 +7715,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7781,14 +7742,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7799,17 +7760,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7826,19 +7787,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7849,23 +7805,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7876,19 +7832,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7899,23 +7850,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7926,19 +7877,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7949,23 +7895,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7976,14 +7922,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7994,23 +7940,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8021,19 +7967,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -8044,23 +7985,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8071,14 +8012,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8089,17 +8030,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8116,14 +8057,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8134,17 +8075,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8161,14 +8102,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8179,17 +8120,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8206,14 +8147,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8224,23 +8165,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8251,14 +8192,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8269,23 +8210,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8296,14 +8237,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8314,23 +8255,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8341,14 +8282,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8359,17 +8300,17 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8386,14 +8327,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8409,18 +8350,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8372,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8454,12 +8395,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8476,14 +8417,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8499,18 +8440,18 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8521,14 +8462,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8544,18 +8485,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8507,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8589,18 +8530,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8552,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8634,18 +8575,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8597,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8679,18 +8620,18 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8642,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8724,12 +8665,12 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8746,14 +8687,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8769,12 +8710,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8791,14 +8732,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8814,12 +8755,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8836,14 +8777,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8859,18 +8800,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8881,14 +8822,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8904,12 +8845,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8926,14 +8867,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8949,18 +8890,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8971,14 +8912,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8994,12 +8935,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -9016,14 +8957,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -9039,12 +8980,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -9061,14 +9002,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9084,12 +9025,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9106,14 +9047,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9129,12 +9070,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9151,14 +9092,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9174,18 +9115,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9137,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9219,12 +9160,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9241,14 +9182,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9264,12 +9205,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9286,14 +9227,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9309,12 +9250,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9331,14 +9272,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9354,12 +9295,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9376,14 +9317,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9399,12 +9340,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9421,14 +9362,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9444,12 +9385,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9466,14 +9407,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9489,18 +9430,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9511,14 +9452,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9534,12 +9475,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9556,14 +9497,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9579,12 +9520,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9601,14 +9542,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9624,12 +9565,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9646,14 +9587,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9669,12 +9610,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9691,14 +9632,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9714,12 +9655,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9736,14 +9677,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9759,12 +9700,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9781,14 +9722,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9804,18 +9745,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9826,14 +9767,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9849,18 +9790,18 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9871,14 +9812,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9894,18 +9835,18 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9916,14 +9857,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9932,630 +9873,210 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B193" s="21" t="inlineStr">
-        <is>
-          <t>秘密</t>
-        </is>
-      </c>
-      <c r="C193" s="21" t="inlineStr">
-        <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
-        </is>
-      </c>
+      <c r="A193" s="21" t="n"/>
+      <c r="B193" s="21" t="n"/>
+      <c r="C193" s="21" t="n"/>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E193" s="21" t="n"/>
       <c r="G193" s="21" t="n"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L193" s="25" t="n"/>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B194" s="21" t="inlineStr">
-        <is>
-          <t>秘密</t>
-        </is>
-      </c>
-      <c r="C194" s="21" t="inlineStr">
-        <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
-        </is>
-      </c>
+      <c r="A194" s="21" t="n"/>
+      <c r="B194" s="21" t="n"/>
+      <c r="C194" s="21" t="n"/>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E194" s="21" t="n"/>
       <c r="G194" s="21" t="n"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L194" s="25" t="n"/>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B195" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C195" s="21" t="inlineStr">
-        <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
-        </is>
-      </c>
+      <c r="A195" s="21" t="n"/>
+      <c r="B195" s="21" t="n"/>
+      <c r="C195" s="21" t="n"/>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E195" s="21" t="n"/>
       <c r="G195" s="21" t="n"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L195" s="25" t="n"/>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B196" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C196" s="21" t="inlineStr">
-        <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
-        </is>
-      </c>
+      <c r="A196" s="21" t="n"/>
+      <c r="B196" s="21" t="n"/>
+      <c r="C196" s="21" t="n"/>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E196" s="21" t="n"/>
       <c r="G196" s="21" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L196" s="25" t="n"/>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B197" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C197" s="21" t="inlineStr">
-        <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
-        </is>
-      </c>
+      <c r="A197" s="21" t="n"/>
+      <c r="B197" s="21" t="n"/>
+      <c r="C197" s="21" t="n"/>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E197" s="21" t="n"/>
       <c r="G197" s="21" t="n"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L197" s="25" t="n"/>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B198" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C198" s="21" t="inlineStr">
-        <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
-        </is>
-      </c>
+      <c r="A198" s="21" t="n"/>
+      <c r="B198" s="21" t="n"/>
+      <c r="C198" s="21" t="n"/>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E198" s="21" t="n"/>
       <c r="G198" s="21" t="n"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L198" s="25" t="n"/>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B199" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C199" s="21" t="inlineStr">
-        <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
-        </is>
-      </c>
+      <c r="A199" s="21" t="n"/>
+      <c r="B199" s="21" t="n"/>
+      <c r="C199" s="21" t="n"/>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E199" s="21" t="n"/>
       <c r="G199" s="21" t="n"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L199" s="25" t="n"/>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B200" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C200" s="21" t="inlineStr">
-        <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
-        </is>
-      </c>
+      <c r="A200" s="21" t="n"/>
+      <c r="B200" s="21" t="n"/>
+      <c r="C200" s="21" t="n"/>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E200" s="21" t="n"/>
       <c r="G200" s="21" t="n"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="inlineStr">
-        <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
-        </is>
-      </c>
+      <c r="L200" s="25" t="n"/>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B201" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C201" s="21" t="inlineStr">
-        <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
-        </is>
-      </c>
+      <c r="A201" s="21" t="n"/>
+      <c r="B201" s="21" t="n"/>
+      <c r="C201" s="21" t="n"/>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E201" s="21" t="n"/>
       <c r="G201" s="21" t="n"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
-        </is>
-      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="inlineStr">
-        <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
-        </is>
-      </c>
+      <c r="L201" s="25" t="n"/>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B202" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C202" s="21" t="inlineStr">
-        <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
-        </is>
-      </c>
+      <c r="A202" s="21" t="n"/>
+      <c r="B202" s="21" t="n"/>
+      <c r="C202" s="21" t="n"/>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E202" s="21" t="n"/>
       <c r="G202" s="21" t="n"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L202" s="25" t="n"/>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B203" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C203" s="21" t="inlineStr">
-        <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
-        </is>
-      </c>
+      <c r="A203" s="21" t="n"/>
+      <c r="B203" s="21" t="n"/>
+      <c r="C203" s="21" t="n"/>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E203" s="21" t="n"/>
       <c r="G203" s="21" t="n"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L203" s="25" t="n"/>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B204" s="21" t="inlineStr">
-        <is>
-          <t>統治</t>
-        </is>
-      </c>
-      <c r="C204" s="21" t="inlineStr">
-        <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
-        </is>
-      </c>
+      <c r="A204" s="21" t="n"/>
+      <c r="B204" s="21" t="n"/>
+      <c r="C204" s="21" t="n"/>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E204" s="21" t="n"/>
       <c r="G204" s="21" t="n"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="inlineStr">
-        <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
-        </is>
-      </c>
+      <c r="L204" s="25" t="n"/>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B205" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C205" s="21" t="inlineStr">
-        <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
-        </is>
-      </c>
+      <c r="A205" s="21" t="n"/>
+      <c r="B205" s="21" t="n"/>
+      <c r="C205" s="21" t="n"/>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E205" s="21" t="n"/>
       <c r="G205" s="21" t="n"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L205" s="25" t="n"/>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="inlineStr">
-        <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
-        </is>
-      </c>
-      <c r="B206" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C206" s="21" t="inlineStr">
-        <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
-        </is>
-      </c>
+      <c r="A206" s="21" t="n"/>
+      <c r="B206" s="21" t="n"/>
+      <c r="C206" s="21" t="n"/>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E206" s="21" t="n"/>
       <c r="G206" s="21" t="n"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L206" s="25" t="n"/>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
@@ -12089,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -1459,7 +1459,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -8580,10 +8580,14 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E164" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8597,7 +8601,7 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
@@ -8763,7 +8767,11 @@
           <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
-      <c r="D168" s="21" t="n"/>
+      <c r="D168" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>中程度</t>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -3943,14 +3943,10 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります。</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3964,7 +3960,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
@@ -3976,7 +3972,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,10 +3993,14 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>WAF ポリシーで Azure Front Door を使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護するのに役立ちます。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>WAF ポリシーで Azure Front Door を使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,15 +4314,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4343,7 +4347,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4360,7 +4364,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4368,7 +4372,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4389,7 +4393,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4406,7 +4410,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4414,7 +4418,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4435,13 +4439,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4452,7 +4456,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4460,7 +4464,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4481,13 +4485,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4498,7 +4502,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4506,7 +4510,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4527,13 +4531,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4544,7 +4548,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4552,7 +4556,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4568,18 +4572,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4590,7 +4594,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4614,18 +4618,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4636,19 +4640,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,12 +4664,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオ向けに、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4686,19 +4686,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4714,18 +4710,18 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,15 +4732,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオ向けに、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4782,15 +4782,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4811,13 +4815,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4828,7 +4832,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4836,7 +4840,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用してリージョンを相互に接続します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4874,19 +4878,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4907,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,19 +4924,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4957,13 +4953,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>ルート サーバーを使用している場合は、ルート サーバー サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4974,7 +4970,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4982,7 +4978,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +4999,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用してリージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,15 +5016,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5094,19 +5094,15 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5120,19 +5116,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5148,18 +5140,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5170,19 +5162,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5203,7 +5191,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5220,7 +5208,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5232,7 +5220,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5253,10 +5241,14 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5270,7 +5262,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5282,7 +5274,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5303,7 +5295,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5320,7 +5312,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5332,7 +5324,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5353,7 +5345,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5370,19 +5362,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5403,13 +5395,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5420,7 +5412,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5432,7 +5424,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5453,7 +5445,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5470,7 +5462,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5482,7 +5474,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5503,7 +5495,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5520,19 +5512,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5553,13 +5545,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5570,7 +5562,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5582,7 +5574,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5603,7 +5595,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5620,7 +5612,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5632,7 +5624,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5653,7 +5645,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5670,15 +5662,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5699,7 +5695,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5716,15 +5712,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,19 +5812,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5840,12 +5836,12 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5862,19 +5858,15 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5895,7 +5887,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5912,19 +5904,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5945,13 +5937,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5962,19 +5954,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5995,13 +5987,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6012,19 +6004,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6045,13 +6037,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6062,15 +6054,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6091,13 +6087,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6104,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6116,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6136,18 +6132,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6158,19 +6154,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6186,18 +6182,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6208,19 +6204,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6236,18 +6228,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6258,19 +6250,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6291,7 +6283,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,19 +6300,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6341,13 +6328,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6358,19 +6345,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6391,7 +6373,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,19 +6390,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6441,13 +6423,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6458,7 +6440,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6470,7 +6452,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6491,13 +6473,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6508,14 +6490,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6536,13 +6523,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6553,15 +6540,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6582,13 +6573,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6599,15 +6590,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,7 +6623,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6645,15 +6640,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6669,12 +6668,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6691,19 +6690,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6719,18 +6718,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6741,19 +6740,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,18 +6764,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6791,19 +6786,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6819,18 +6810,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6841,19 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6869,18 +6855,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
+          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6891,19 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6919,18 +6900,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6941,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6964,18 +6945,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6986,19 +6967,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7014,12 +6995,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7036,19 +7017,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7064,12 +7045,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7084,17 +7065,21 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7110,12 +7095,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7132,19 +7117,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7160,12 +7145,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7182,19 +7167,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7210,18 +7195,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7232,19 +7217,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7260,18 +7240,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7282,14 +7262,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7305,18 +7285,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7327,19 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7355,18 +7330,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7377,14 +7352,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7400,12 +7380,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7422,19 +7402,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7450,12 +7430,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7470,16 +7450,17 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+      <c r="H139" s="15" t="n"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7495,12 +7476,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7517,14 +7498,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7540,12 +7526,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7562,14 +7548,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7585,18 +7576,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7607,14 +7598,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7625,23 +7621,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7652,14 +7648,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7670,23 +7666,23 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7697,14 +7693,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7715,23 +7711,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7742,14 +7738,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7760,17 +7761,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7787,14 +7788,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7805,23 +7806,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7832,14 +7833,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7850,23 +7851,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7877,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7895,23 +7896,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7922,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7940,23 +7941,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7967,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7985,17 +7986,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8012,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8030,7 +8031,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8040,13 +8041,13 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8057,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8075,7 +8076,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8085,7 +8086,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8102,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8130,13 +8131,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8147,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8175,13 +8176,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8192,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8220,13 +8221,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8237,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8260,12 +8261,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8282,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8305,18 +8306,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8327,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8350,18 +8351,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8372,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8395,18 +8396,18 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8417,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8440,12 +8441,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8462,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8485,18 +8486,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8507,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8530,12 +8531,12 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8552,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8575,22 +8576,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8601,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8624,12 +8621,12 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8646,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8674,13 +8671,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8691,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8719,7 +8716,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8736,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8764,14 +8761,10 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D168" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+        </is>
+      </c>
+      <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8785,14 +8778,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8808,18 +8801,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8830,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8853,12 +8846,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,14 +8868,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8898,18 +8891,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8920,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8943,12 +8936,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,14 +8958,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8988,15 +8981,19 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E173" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9010,14 +9007,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9033,12 +9030,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9055,14 +9052,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9078,12 +9075,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9100,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9123,12 +9120,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9145,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9168,15 +9165,19 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9190,14 +9191,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9218,13 +9219,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9235,14 +9236,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9263,7 +9264,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9280,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9308,7 +9309,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9332,7 +9333,7 @@
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9348,12 +9349,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9370,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9393,12 +9394,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9415,14 +9416,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9438,12 +9439,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9460,14 +9461,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9483,12 +9484,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9505,14 +9506,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9528,12 +9529,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9550,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9573,12 +9574,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9595,14 +9596,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9618,12 +9619,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9640,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9663,12 +9664,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9685,14 +9686,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9708,12 +9709,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9730,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9753,18 +9754,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9775,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9803,13 +9804,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9820,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9848,13 +9849,13 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9865,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9881,135 +9882,405 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="n"/>
-      <c r="B193" s="21" t="n"/>
-      <c r="C193" s="21" t="n"/>
+      <c r="A193" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B193" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C193" s="21" t="inlineStr">
+        <is>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+        </is>
+      </c>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="n"/>
+      <c r="E193" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G193" s="21" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="n"/>
+      <c r="L193" s="25" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="n"/>
-      <c r="B194" s="21" t="n"/>
-      <c r="C194" s="21" t="n"/>
+      <c r="A194" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B194" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C194" s="21" t="inlineStr">
+        <is>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+        </is>
+      </c>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="n"/>
+      <c r="E194" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G194" s="21" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="n"/>
+      <c r="L194" s="25" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="n"/>
-      <c r="B195" s="21" t="n"/>
-      <c r="C195" s="21" t="n"/>
+      <c r="A195" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B195" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C195" s="21" t="inlineStr">
+        <is>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+        </is>
+      </c>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="n"/>
+      <c r="E195" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G195" s="21" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="n"/>
+      <c r="L195" s="25" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="n"/>
-      <c r="B196" s="21" t="n"/>
-      <c r="C196" s="21" t="n"/>
+      <c r="A196" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C196" s="21" t="inlineStr">
+        <is>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+        </is>
+      </c>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="n"/>
+      <c r="E196" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G196" s="21" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="n"/>
+      <c r="L196" s="25" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="n"/>
-      <c r="B197" s="21" t="n"/>
-      <c r="C197" s="21" t="n"/>
+      <c r="A197" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B197" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C197" s="21" t="inlineStr">
+        <is>
+          <t>新しい Azure サービスの実装方法を計画する</t>
+        </is>
+      </c>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="n"/>
+      <c r="E197" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G197" s="21" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="n"/>
+      <c r="L197" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="n"/>
-      <c r="B198" s="21" t="n"/>
-      <c r="C198" s="21" t="n"/>
+      <c r="A198" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C198" s="21" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="n"/>
+      <c r="E198" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G198" s="21" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="n"/>
+      <c r="L198" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="n"/>
-      <c r="B199" s="21" t="n"/>
-      <c r="C199" s="21" t="n"/>
+      <c r="A199" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B199" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C199" s="21" t="inlineStr">
+        <is>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+        </is>
+      </c>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="n"/>
+      <c r="E199" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G199" s="21" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="n"/>
+      <c r="L199" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="n"/>
-      <c r="B200" s="21" t="n"/>
-      <c r="C200" s="21" t="n"/>
+      <c r="A200" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C200" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+        </is>
+      </c>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="n"/>
+      <c r="E200" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G200" s="21" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="n"/>
+      <c r="L200" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="n"/>
-      <c r="B201" s="21" t="n"/>
-      <c r="C201" s="21" t="n"/>
+      <c r="A201" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B201" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C201" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="n"/>
+      <c r="E201" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G201" s="21" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="n"/>
+      <c r="L201" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
@@ -11618,7 +11889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -5345,13 +5345,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>無制限のデータ ExpressRoute 回線を使用しているのは、コストに見合う帯域幅に達した場合のみにしてください。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,19 +5362,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5391,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,19 +5408,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5437,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5454,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5466,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5487,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5504,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,13 +5537,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5562,7 +5554,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5566,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,19 +5604,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,13 +5637,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5662,7 +5654,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5674,7 +5666,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5687,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,7 +5704,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5724,7 +5716,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5745,7 +5737,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5762,7 +5754,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5774,7 +5766,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5795,7 +5787,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5812,15 +5804,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5841,13 +5837,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5854,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5904,15 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5932,18 +5928,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5954,19 +5950,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5979,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6016,7 +6008,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6029,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6046,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6079,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,19 +6096,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6137,13 +6129,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6146,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6187,13 +6179,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6207,12 +6199,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="15" t="n"/>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6233,13 +6229,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6250,19 +6246,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,18 +6274,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6300,14 +6296,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6323,18 +6319,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6345,14 +6341,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6373,13 +6374,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6390,19 +6391,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6423,7 +6419,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6440,19 +6436,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6473,13 +6465,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6490,7 +6482,7 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6502,7 +6494,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6540,19 +6532,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6573,7 +6565,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6590,19 +6582,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6623,13 +6615,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6640,19 +6632,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,13 +6665,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6690,19 +6682,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,7 +6715,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6740,15 +6732,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,7 +6765,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6786,15 +6782,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6922,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6945,12 +6945,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
+          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,19 +6967,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,18 +6990,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7017,19 +7012,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7050,13 +7040,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7067,19 +7057,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7100,7 +7090,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7122,14 +7112,14 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7150,7 +7140,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7172,14 +7162,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7195,18 +7185,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7217,14 +7207,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,18 +7235,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7262,14 +7257,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7290,13 +7290,13 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,13 +7335,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7352,19 +7352,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7385,7 +7380,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7402,19 +7397,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7435,7 +7425,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7450,17 +7440,21 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7481,7 +7475,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7498,7 +7492,7 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7510,7 +7504,7 @@
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7531,7 +7525,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7546,21 +7540,17 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H141" s="15" t="n"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7576,12 +7566,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7598,19 +7588,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7626,12 +7616,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7648,14 +7638,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7676,13 +7671,13 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7693,14 +7688,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7739,18 +7739,13 @@
       <c r="H145" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7771,13 +7766,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7788,14 +7783,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7816,7 +7811,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7833,14 +7828,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,13 +7996,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8013,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8031,23 +8031,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8058,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8076,23 +8076,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,7 +8121,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8166,7 +8166,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8193,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8238,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8266,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8328,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,13 +8446,13 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8463,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,13 +8491,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8508,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8553,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,13 +8581,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8598,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8666,18 +8666,18 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8733,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8761,13 +8761,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8785,7 +8785,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8823,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,13 +8896,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8913,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,17 +8986,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9007,14 +9003,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9035,7 +9031,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9059,7 +9055,7 @@
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9080,10 +9076,14 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9097,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9142,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,14 +9170,10 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9191,14 +9187,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9214,18 +9210,18 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9236,14 +9232,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9259,15 +9255,19 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9281,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9309,13 +9309,13 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9326,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9371,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9423,7 +9423,7 @@
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9468,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9513,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9551,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9603,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9693,7 +9693,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9754,12 +9754,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9799,12 +9799,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9821,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9911,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9956,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10001,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10046,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10091,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10136,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10159,18 +10159,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10181,14 +10181,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,13 +10209,13 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10226,14 +10226,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10271,14 +10271,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10287,30 +10287,90 @@
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="n"/>
-      <c r="B202" s="21" t="n"/>
-      <c r="C202" s="21" t="n"/>
+      <c r="A202" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C202" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+        </is>
+      </c>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="n"/>
+      <c r="E202" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G202" s="21" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="n"/>
+      <c r="L202" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="n"/>
-      <c r="B203" s="21" t="n"/>
-      <c r="C203" s="21" t="n"/>
+      <c r="A203" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B203" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C203" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="n"/>
+      <c r="E203" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G203" s="21" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="n"/>
+      <c r="L203" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
@@ -11889,7 +11949,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.ja.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>バックアップと災害復旧</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1213,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1263,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1296,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1313,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1346,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1363,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1396,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1413,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
+          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1463,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1496,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1513,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1546,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1563,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1596,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1613,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1646,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1663,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1713,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1768,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1813,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1846,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1863,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1913,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1936,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1963,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +2013,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2063,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2125,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2175,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2213,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2241,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2258,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2303,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2311,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2332,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2357,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2378,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2395,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2403,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2424,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2441,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2491,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2524,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2541,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2574,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2591,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2624,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2641,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2691,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2714,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2741,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2770,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2787,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2795,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2811,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2833,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2866,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2881,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2923,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2958,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2987,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +3025,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3058,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3075,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3108,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3125,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3175,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3208,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3225,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3814,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
